--- a/Meyer&Schmid_Dataset_Correlation_GhanaBats.xlsx
+++ b/Meyer&Schmid_Dataset_Correlation_GhanaBats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magdalena_M\Dropbox\Ghana\01_Community and Dilution\Manuscript\Code and dataset for public repository\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10952154-C667-4648-8E23-692270B7545A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8BD19E-6346-4E11-BF91-53FB9B4300CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="495" windowWidth="24435" windowHeight="14025" xr2:uid="{5E55F33D-9628-4757-8E74-49BC320ED5A3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$Q$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$P$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="49">
   <si>
     <t>TIME</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>Jul-Aug2012</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>dry</t>
   </si>
   <si>
     <t>RelAbundHipC</t>
@@ -554,25 +545,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E1DAF-61C0-4188-81BE-93A223FA737B}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:R56"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,55 +571,52 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -636,55 +624,52 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>1.0123308</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0123308</v>
+        <v>2.6</v>
       </c>
       <c r="H2" s="2">
-        <v>2.6</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="O2" s="2">
         <v>15.384615384615385</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>38.461538461538467</v>
-      </c>
       <c r="P2" s="2">
-        <v>15.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -692,55 +677,52 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>7</v>
+        <v>1.3590487</v>
       </c>
       <c r="G3" s="2">
-        <v>1.3590487</v>
+        <v>2.8613170000000001</v>
       </c>
       <c r="H3" s="2">
-        <v>2.8613170000000001</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="I3" s="2">
-        <v>3.7037037037037033</v>
+        <v>16.049382716049383</v>
       </c>
       <c r="J3" s="2">
-        <v>16.049382716049383</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>0.61728395061728392</v>
       </c>
       <c r="L3" s="2">
+        <v>9.8765432098765427</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53.703703703703709</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8.6419753086419746</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>20.37037037037037</v>
+      </c>
+      <c r="Q3" s="2">
         <v>0.61728395061728392</v>
       </c>
-      <c r="M3" s="2">
-        <v>9.8765432098765427</v>
-      </c>
-      <c r="N3" s="2">
-        <v>53.703703703703709</v>
-      </c>
-      <c r="O3" s="2">
-        <v>8.6419753086419746</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>20.37037037037037</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.61728395061728392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -748,40 +730,40 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>1.4686676999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>1.4686676999999999</v>
+        <v>3.8763040000000002</v>
       </c>
       <c r="H4" s="2">
-        <v>3.8763040000000002</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="I4" s="2">
-        <v>3.9215686274509802</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="L4" s="2">
-        <v>1.9607843137254901</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="M4" s="2">
-        <v>27.450980392156865</v>
+        <v>15.686274509803921</v>
       </c>
       <c r="N4" s="2">
-        <v>15.686274509803921</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -790,13 +772,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
         <v>37.254901960784316</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -804,55 +783,52 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>1.4521443000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>1.4521443000000001</v>
+        <v>3.494545</v>
       </c>
       <c r="H5" s="2">
-        <v>3.494545</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="I5" s="2">
-        <v>16.129032258064516</v>
+        <v>32.258064516129032</v>
       </c>
       <c r="J5" s="2">
-        <v>32.258064516129032</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="K5" s="2">
         <v>3.225806451612903</v>
       </c>
       <c r="L5" s="2">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>29.032258064516132</v>
       </c>
       <c r="N5" s="2">
-        <v>29.032258064516132</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>41.935483870967744</v>
       </c>
       <c r="Q5" s="2">
-        <v>41.935483870967744</v>
-      </c>
-      <c r="R5" s="2">
         <v>6.4516129032258061</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -860,55 +836,52 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>1.2153415000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>1.2153415000000001</v>
+        <v>2.6890239999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>2.6890239999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="J6" s="2">
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="K6" s="2">
         <v>7.1428571428571423</v>
       </c>
-      <c r="K6" s="2">
-        <v>9.5238095238095237</v>
-      </c>
       <c r="L6" s="2">
-        <v>7.1428571428571423</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="N6" s="2">
-        <v>21.428571428571427</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Q6" s="2">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="R6" s="2">
         <v>54.761904761904766</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -916,56 +889,53 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
       </c>
       <c r="F7" s="2">
+        <v>0.92296239999999996</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.93133</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I7" s="2">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="J7" s="2">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>68.333333333333329</v>
+      </c>
+      <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.92296239999999996</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.93133</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J7" s="2">
-        <v>53.333333333333336</v>
-      </c>
-      <c r="K7" s="2">
-        <v>13.333333333333334</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>21.666666666666668</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>68.333333333333329</v>
-      </c>
-      <c r="R7" s="2">
-        <v>5</v>
-      </c>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -973,55 +943,52 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>1.0182933999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0182933999999999</v>
+        <v>2.242667</v>
       </c>
       <c r="H8" s="2">
-        <v>2.242667</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="I8" s="2">
-        <v>3.4482758620689653</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="J8" s="2">
+        <v>13.793103448275861</v>
+      </c>
+      <c r="K8" s="2">
         <v>6.8965517241379306</v>
       </c>
-      <c r="K8" s="2">
-        <v>13.793103448275861</v>
-      </c>
       <c r="L8" s="2">
-        <v>6.8965517241379306</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>17.241379310344829</v>
       </c>
       <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>17.241379310344829</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
       <c r="Q8" s="2">
-        <v>17.241379310344829</v>
-      </c>
-      <c r="R8" s="2">
         <v>62.068965517241381</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1029,55 +996,52 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>1.6893203000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>1.6893203000000001</v>
+        <v>4.9793099999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>4.9793099999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2.6315789473684208</v>
       </c>
       <c r="J9" s="2">
-        <v>2.6315789473684208</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="L9" s="2">
-        <v>5.2631578947368416</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="M9" s="2">
+        <v>28.947368421052634</v>
+      </c>
+      <c r="N9" s="2">
+        <v>10.526315789473683</v>
+      </c>
+      <c r="O9" s="2">
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>21.052631578947366</v>
       </c>
-      <c r="N9" s="2">
-        <v>28.947368421052634</v>
-      </c>
-      <c r="O9" s="2">
-        <v>10.526315789473683</v>
-      </c>
-      <c r="P9" s="2">
-        <v>7.8947368421052628</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>21.052631578947366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1085,55 +1049,52 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>0.91122829999999999</v>
       </c>
       <c r="G10" s="2">
-        <v>0.91122829999999999</v>
+        <v>2.3067090000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>2.3067090000000001</v>
+        <v>18.421052631578945</v>
       </c>
       <c r="I10" s="2">
-        <v>18.421052631578945</v>
+        <v>23.026315789473685</v>
       </c>
       <c r="J10" s="2">
-        <v>23.026315789473685</v>
+        <v>17.105263157894736</v>
       </c>
       <c r="K10" s="2">
-        <v>17.105263157894736</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="N10" s="2">
-        <v>42.105263157894733</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="2">
-        <v>50</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1141,55 +1102,52 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>1.0019579999999999</v>
       </c>
       <c r="G11" s="2">
-        <v>1.0019579999999999</v>
+        <v>2.5084379999999999</v>
       </c>
       <c r="H11" s="2">
-        <v>2.5084379999999999</v>
+        <v>9.375</v>
       </c>
       <c r="I11" s="2">
-        <v>9.375</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="J11" s="2">
-        <v>8.3333333333333321</v>
+        <v>6.25</v>
       </c>
       <c r="K11" s="2">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>17.708333333333336</v>
       </c>
       <c r="N11" s="2">
-        <v>17.708333333333336</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>53.125</v>
       </c>
       <c r="Q11" s="2">
-        <v>53.125</v>
-      </c>
-      <c r="R11" s="2">
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1197,55 +1155,52 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>5</v>
+        <v>1.1584509999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>1.1584509999999999</v>
+        <v>2.4856199999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>2.4856199999999999</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="I12" s="2">
-        <v>7.2727272727272725</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="J12" s="2">
-        <v>10.909090909090908</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="M12" s="2">
-        <v>14.545454545454545</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2">
-        <v>20</v>
+        <v>58.18181818181818</v>
       </c>
       <c r="P12" s="2">
-        <v>58.18181818181818</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1253,55 +1208,52 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
+        <v>1.5013144</v>
       </c>
       <c r="G13" s="2">
-        <v>1.5013144</v>
+        <v>3.9317410000000002</v>
       </c>
       <c r="H13" s="2">
-        <v>3.9317410000000002</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="I13" s="2">
-        <v>10.416666666666668</v>
+        <v>6.25</v>
       </c>
       <c r="J13" s="2">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="M13" s="2">
-        <v>31.25</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="N13" s="2">
-        <v>33.333333333333329</v>
+        <v>12.5</v>
       </c>
       <c r="O13" s="2">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="Q13" s="2">
-        <v>16.666666666666664</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1309,55 +1261,52 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.5585131000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.8216559999999999</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.5585131000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3.8216559999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="Q14" s="2">
         <v>25</v>
       </c>
-      <c r="L14" s="2">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2">
-        <v>21.666666666666668</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>38.333333333333336</v>
-      </c>
-      <c r="R14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1365,55 +1314,52 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>4</v>
+        <v>0.87011899999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>0.87011899999999998</v>
+        <v>2.134074</v>
       </c>
       <c r="H15" s="2">
-        <v>2.134074</v>
+        <v>16.842105263157894</v>
       </c>
       <c r="I15" s="2">
-        <v>16.842105263157894</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="J15" s="2">
-        <v>21.052631578947366</v>
+        <v>18.947368421052634</v>
       </c>
       <c r="K15" s="2">
-        <v>18.947368421052634</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>56.84210526315789</v>
       </c>
       <c r="N15" s="2">
-        <v>56.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>37.894736842105267</v>
       </c>
       <c r="Q15" s="2">
-        <v>37.894736842105267</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1421,55 +1367,52 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>1.1925079999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>1.1925079999999999</v>
+        <v>3.0013299999999998</v>
       </c>
       <c r="H16" s="2">
-        <v>3.0013299999999998</v>
+        <v>23.157894736842106</v>
       </c>
       <c r="I16" s="2">
-        <v>23.157894736842106</v>
+        <v>16.842105263157894</v>
       </c>
       <c r="J16" s="2">
-        <v>16.842105263157894</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="K16" s="2">
-        <v>4.2105263157894735</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="L16" s="2">
-        <v>5.2631578947368416</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="N16" s="2">
-        <v>22.105263157894736</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="Q16" s="2">
-        <v>42.105263157894733</v>
-      </c>
-      <c r="R16" s="2">
         <v>32.631578947368425</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1477,55 +1420,52 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
       </c>
       <c r="F17" s="2">
+        <v>1.2024414999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.8268550000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>40</v>
+      </c>
+      <c r="P17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="2">
-        <v>1.2024414999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2.8268550000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>10</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>10</v>
-      </c>
-      <c r="O17" s="2">
-        <v>42.5</v>
-      </c>
-      <c r="P17" s="2">
-        <v>40</v>
-      </c>
       <c r="Q17" s="2">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1533,28 +1473,28 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>1.0400281</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0400281</v>
+        <v>2.2335690000000001</v>
       </c>
       <c r="H18" s="2">
-        <v>2.2335690000000001</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="I18" s="2">
-        <v>12.76595744680851</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="J18" s="2">
-        <v>6.3829787234042552</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1563,25 +1503,22 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>61.702127659574465</v>
       </c>
       <c r="N18" s="2">
-        <v>61.702127659574465</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="O18" s="2">
-        <v>10.638297872340425</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="P18" s="2">
-        <v>2.1276595744680851</v>
+        <v>23.404255319148938</v>
       </c>
       <c r="Q18" s="2">
-        <v>23.404255319148938</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1589,55 +1526,52 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
         <v>7</v>
       </c>
+      <c r="F19" s="4">
+        <v>1.3008267</v>
+      </c>
       <c r="G19" s="4">
-        <v>1.3008267</v>
-      </c>
-      <c r="H19" s="4">
         <v>2.614579</v>
       </c>
+      <c r="H19" s="2">
+        <v>22.784810126582279</v>
+      </c>
       <c r="I19" s="2">
-        <v>22.784810126582279</v>
+        <v>10.126582278481013</v>
       </c>
       <c r="J19" s="2">
-        <v>10.126582278481013</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="K19" s="2">
-        <v>18.9873417721519</v>
+        <v>2.5316455696202533</v>
       </c>
       <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>21.518987341772153</v>
+      </c>
+      <c r="N19" s="2">
+        <v>7.59493670886076</v>
+      </c>
+      <c r="O19" s="2">
         <v>2.5316455696202533</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>21.518987341772153</v>
-      </c>
-      <c r="O19" s="2">
-        <v>7.59493670886076</v>
-      </c>
       <c r="P19" s="2">
-        <v>2.5316455696202533</v>
+        <v>56.962025316455701</v>
       </c>
       <c r="Q19" s="2">
-        <v>56.962025316455701</v>
-      </c>
-      <c r="R19" s="2">
         <v>6.3291139240506329</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1645,28 +1579,28 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
       </c>
       <c r="F20" s="2">
-        <v>4</v>
+        <v>0.80409909999999996</v>
       </c>
       <c r="G20" s="2">
-        <v>0.80409909999999996</v>
+        <v>1.9561200000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>1.9561200000000001</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="I20" s="2">
-        <v>28.571428571428569</v>
+        <v>62.337662337662337</v>
       </c>
       <c r="J20" s="2">
-        <v>62.337662337662337</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -1675,25 +1609,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>32.467532467532465</v>
       </c>
       <c r="N20" s="2">
-        <v>32.467532467532465</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="Q20" s="2">
-        <v>63.636363636363633</v>
-      </c>
-      <c r="R20" s="2">
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1701,55 +1632,52 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
       </c>
       <c r="F21" s="2">
-        <v>6</v>
+        <v>0.66074580000000005</v>
       </c>
       <c r="G21" s="2">
-        <v>0.66074580000000005</v>
+        <v>1.5204759999999999</v>
       </c>
       <c r="H21" s="2">
-        <v>1.5204759999999999</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="K21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="N21" s="2">
-        <v>16.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="P21" s="2">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="Q21" s="2">
         <v>0.66666666666666674</v>
       </c>
-      <c r="Q21" s="2">
-        <v>79.333333333333329</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1757,28 +1685,28 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>0.91368470000000002</v>
       </c>
       <c r="G22" s="2">
-        <v>0.91368470000000002</v>
+        <v>1.9566399999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>1.9566399999999999</v>
+        <v>60.526315789473685</v>
       </c>
       <c r="I22" s="2">
-        <v>60.526315789473685</v>
+        <v>28.947368421052634</v>
       </c>
       <c r="J22" s="2">
-        <v>28.947368421052634</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -1787,25 +1715,22 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>13.157894736842104</v>
       </c>
       <c r="N22" s="2">
-        <v>13.157894736842104</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>68.421052631578945</v>
       </c>
       <c r="P22" s="2">
-        <v>68.421052631578945</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="Q22" s="2">
-        <v>15.789473684210526</v>
-      </c>
-      <c r="R22" s="2">
         <v>2.6315789473684208</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1813,55 +1738,52 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
       </c>
       <c r="F23" s="2">
-        <v>5</v>
+        <v>1.2717911</v>
       </c>
       <c r="G23" s="2">
-        <v>1.2717911</v>
+        <v>2.9454549999999999</v>
       </c>
       <c r="H23" s="2">
-        <v>2.9454549999999999</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="I23" s="2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>18.055555555555554</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="N23" s="2">
         <v>13.888888888888889</v>
       </c>
-      <c r="J23" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>18.055555555555554</v>
-      </c>
-      <c r="N23" s="2">
-        <v>15.277777777777779</v>
-      </c>
       <c r="O23" s="2">
-        <v>13.888888888888889</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="P23" s="2">
-        <v>1.3888888888888888</v>
+        <v>51.388888888888886</v>
       </c>
       <c r="Q23" s="2">
-        <v>51.388888888888886</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1869,55 +1791,52 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>6</v>
+        <v>1.1727437000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>1.1727437000000001</v>
+        <v>2.3707319999999998</v>
       </c>
       <c r="H24" s="2">
-        <v>2.3707319999999998</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="I24" s="2">
-        <v>9.2592592592592595</v>
+        <v>42.592592592592595</v>
       </c>
       <c r="J24" s="2">
-        <v>42.592592592592595</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="K24" s="2">
-        <v>20.37037037037037</v>
+        <v>1.8518518518518516</v>
       </c>
       <c r="L24" s="2">
-        <v>1.8518518518518516</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="M24" s="2">
-        <v>5.5555555555555554</v>
+        <v>12.962962962962962</v>
       </c>
       <c r="N24" s="2">
-        <v>12.962962962962962</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="Q24" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="R24" s="2">
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1925,55 +1844,52 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>0.96868929999999998</v>
       </c>
       <c r="G25" s="2">
-        <v>0.96868929999999998</v>
+        <v>2.125</v>
       </c>
       <c r="H25" s="2">
-        <v>2.125</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="I25" s="2">
-        <v>8.8235294117647065</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="J25" s="2">
-        <v>41.17647058823529</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="K25" s="2">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="N25" s="2">
-        <v>29.411764705882355</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="P25" s="2">
+        <v>61.764705882352942</v>
+      </c>
+      <c r="Q25" s="2">
         <v>2.9411764705882351</v>
       </c>
-      <c r="Q25" s="2">
-        <v>61.764705882352942</v>
-      </c>
-      <c r="R25" s="2">
-        <v>2.9411764705882351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1981,55 +1897,52 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
       </c>
       <c r="F26" s="2">
-        <v>4</v>
+        <v>0.93200229999999995</v>
       </c>
       <c r="G26" s="2">
-        <v>0.93200229999999995</v>
+        <v>2.0066890000000002</v>
       </c>
       <c r="H26" s="2">
-        <v>2.0066890000000002</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="I26" s="2">
+        <v>51.666666666666671</v>
+      </c>
+      <c r="J26" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="J26" s="2">
-        <v>51.666666666666671</v>
-      </c>
       <c r="K26" s="2">
-        <v>13.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="N26" s="2">
-        <v>21.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q26" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="R26" s="2">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2037,55 +1950,52 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>0.63651420000000003</v>
       </c>
       <c r="G27" s="2">
-        <v>0.63651420000000003</v>
+        <v>1.8</v>
       </c>
       <c r="H27" s="2">
-        <v>1.8</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>33.333333333333329</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
       <c r="P27" s="2">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2093,55 +2003,52 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>0.7529747</v>
       </c>
       <c r="G28" s="2">
-        <v>0.7529747</v>
+        <v>1.795031</v>
       </c>
       <c r="H28" s="2">
-        <v>1.795031</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="I28" s="2">
-        <v>11.76470588235294</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>23.52941176470588</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>70.588235294117652</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
       <c r="Q28" s="2">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2149,55 +2056,52 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>0.75954739999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>0.75954739999999998</v>
+        <v>1.7536229999999999</v>
       </c>
       <c r="H29" s="2">
-        <v>1.7536229999999999</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="J29" s="2">
-        <v>63.636363636363633</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="K29" s="2">
-        <v>9.0909090909090917</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="N29" s="2">
-        <v>18.181818181818183</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="Q29" s="2">
-        <v>72.727272727272734</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2205,55 +2109,52 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.160018</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.7472530000000002</v>
+      </c>
+      <c r="H30" s="2">
         <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1.160018</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2.7472530000000002</v>
       </c>
       <c r="I30" s="2">
         <v>6</v>
       </c>
       <c r="J30" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K30" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N30" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="2">
-        <v>18</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2261,55 +2162,52 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
       </c>
       <c r="F31" s="2">
-        <v>4</v>
+        <v>1.0321015</v>
       </c>
       <c r="G31" s="2">
-        <v>1.0321015</v>
+        <v>2.4700850000000001</v>
       </c>
       <c r="H31" s="2">
-        <v>2.4700850000000001</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="I31" s="2">
+        <v>20.588235294117645</v>
+      </c>
+      <c r="J31" s="2">
+        <v>29.411764705882355</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>38.235294117647058</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
         <v>2.9411764705882351</v>
       </c>
-      <c r="J31" s="2">
-        <v>20.588235294117645</v>
-      </c>
-      <c r="K31" s="2">
-        <v>29.411764705882355</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>38.235294117647058</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
       <c r="P31" s="2">
-        <v>2.9411764705882351</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="2">
-        <v>50</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2317,28 +2215,28 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>4</v>
+        <v>0.79023480000000001</v>
       </c>
       <c r="G32" s="2">
-        <v>0.79023480000000001</v>
+        <v>1.651429</v>
       </c>
       <c r="H32" s="2">
-        <v>1.651429</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="I32" s="2">
-        <v>64.705882352941174</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="J32" s="2">
-        <v>35.294117647058826</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -2347,25 +2245,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="N32" s="2">
-        <v>11.76470588235294</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="O32" s="2">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="P32" s="2">
         <v>5.8823529411764701</v>
       </c>
-      <c r="P32" s="2">
-        <v>76.470588235294116</v>
-      </c>
       <c r="Q32" s="2">
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2373,28 +2268,28 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>2</v>
+        <v>0.54559460000000004</v>
       </c>
       <c r="G33" s="2">
-        <v>0.54559460000000004</v>
+        <v>1.5621620000000001</v>
       </c>
       <c r="H33" s="2">
-        <v>1.5621620000000001</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="I33" s="2">
-        <v>5.8823529411764701</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="J33" s="2">
-        <v>17.647058823529413</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -2403,25 +2298,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="N33" s="2">
-        <v>76.470588235294116</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>0</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="Q33" s="2">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2429,28 +2321,28 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>2</v>
+        <v>0.41011629999999999</v>
       </c>
       <c r="G34" s="2">
-        <v>0.41011629999999999</v>
+        <v>1.3243240000000001</v>
       </c>
       <c r="H34" s="2">
-        <v>1.3243240000000001</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="I34" s="2">
-        <v>28.571428571428569</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="J34" s="2">
-        <v>7.1428571428571423</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -2459,25 +2351,22 @@
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N34" s="2">
-        <v>85.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Q34" s="2">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2485,55 +2374,52 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>2</v>
+        <v>0.41011629999999999</v>
       </c>
       <c r="G35" s="2">
-        <v>0.41011629999999999</v>
+        <v>1.3243240000000001</v>
       </c>
       <c r="H35" s="2">
-        <v>1.3243240000000001</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="I35" s="2">
-        <v>9.5238095238095237</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J35" s="2">
-        <v>66.666666666666657</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="K35" s="2">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="N35" s="2">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Q35" s="2">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2541,55 +2427,52 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>2</v>
+        <v>0.66156320000000002</v>
       </c>
       <c r="G36" s="2">
-        <v>0.66156320000000002</v>
+        <v>1.8823529999999999</v>
       </c>
       <c r="H36" s="2">
-        <v>1.8823529999999999</v>
+        <v>50</v>
       </c>
       <c r="I36" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J36" s="2">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="K36" s="2">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="N36" s="2">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="Q36" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2597,55 +2480,52 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
       </c>
       <c r="F37" s="2">
-        <v>4</v>
+        <v>1.2309315999999999</v>
       </c>
       <c r="G37" s="2">
-        <v>1.2309315999999999</v>
+        <v>3.072727</v>
       </c>
       <c r="H37" s="2">
-        <v>3.072727</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="L37" s="2">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
         <v>23.076923076923077</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="M37" s="2">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>23.076923076923077</v>
       </c>
       <c r="P37" s="2">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
         <v>7.6923076923076925</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2653,55 +2533,52 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
       </c>
       <c r="F38" s="2">
-        <v>5</v>
+        <v>1.3365304</v>
       </c>
       <c r="G38" s="2">
-        <v>1.3365304</v>
+        <v>3.028829</v>
       </c>
       <c r="H38" s="2">
-        <v>3.028829</v>
+        <v>12.195121951219512</v>
       </c>
       <c r="I38" s="2">
+        <v>7.3170731707317067</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="L38" s="2">
         <v>12.195121951219512</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
+        <v>19.512195121951219</v>
+      </c>
+      <c r="N38" s="2">
+        <v>51.219512195121951</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="Q38" s="2">
         <v>7.3170731707317067</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>2.4390243902439024</v>
-      </c>
-      <c r="M38" s="2">
-        <v>12.195121951219512</v>
-      </c>
-      <c r="N38" s="2">
-        <v>19.512195121951219</v>
-      </c>
-      <c r="O38" s="2">
-        <v>51.219512195121951</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>9.7560975609756095</v>
-      </c>
-      <c r="R38" s="2">
-        <v>7.3170731707317067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2709,55 +2586,52 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
       <c r="F39" s="2">
-        <v>5</v>
+        <v>1.2858954</v>
       </c>
       <c r="G39" s="2">
-        <v>1.2858954</v>
+        <v>3.0843370000000001</v>
       </c>
       <c r="H39" s="2">
-        <v>3.0843370000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="K39" s="2">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="M39" s="2">
         <v>9.375</v>
       </c>
       <c r="N39" s="2">
-        <v>9.375</v>
+        <v>3.125</v>
       </c>
       <c r="O39" s="2">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q39" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="R39" s="2">
         <v>40.625</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2765,55 +2639,52 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>3</v>
+        <v>0.63482510000000003</v>
       </c>
       <c r="G40" s="2">
-        <v>0.63482510000000003</v>
+        <v>1.6116969999999999</v>
       </c>
       <c r="H40" s="2">
-        <v>1.6116969999999999</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="I40" s="2">
-        <v>4.8780487804878048</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="J40" s="2">
         <v>7.3170731707317067</v>
       </c>
       <c r="K40" s="2">
-        <v>7.3170731707317067</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>75.609756097560975</v>
       </c>
       <c r="N40" s="2">
-        <v>75.609756097560975</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="P40" s="2">
-        <v>2.4390243902439024</v>
+        <v>21.951219512195124</v>
       </c>
       <c r="Q40" s="2">
-        <v>21.951219512195124</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2821,55 +2692,52 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
       </c>
       <c r="F41" s="2">
-        <v>5</v>
+        <v>1.2645237</v>
       </c>
       <c r="G41" s="2">
-        <v>1.2645237</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="J41" s="2">
-        <v>7.4074074074074066</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="K41" s="2">
-        <v>11.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>48.148148148148145</v>
       </c>
       <c r="N41" s="2">
-        <v>48.148148148148145</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="P41" s="2">
-        <v>3.7037037037037033</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q41" s="2">
         <v>22.222222222222221</v>
       </c>
-      <c r="R41" s="2">
-        <v>22.222222222222221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2877,55 +2745,52 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.2424533</v>
+      </c>
+      <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1.2424533</v>
-      </c>
       <c r="H42" s="2">
-        <v>3</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I42" s="2">
         <v>16.666666666666664</v>
       </c>
       <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
         <v>16.666666666666664</v>
       </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
       <c r="M42" s="2">
+        <v>50</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
         <v>16.666666666666664</v>
-      </c>
-      <c r="N42" s="2">
-        <v>50</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
       </c>
       <c r="P42" s="2">
         <v>16.666666666666664</v>
       </c>
       <c r="Q42" s="2">
-        <v>16.666666666666664</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2933,55 +2798,52 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7</v>
       </c>
       <c r="F43" s="2">
-        <v>7</v>
+        <v>1.5489964000000001</v>
       </c>
       <c r="G43" s="2">
-        <v>1.5489964000000001</v>
+        <v>4.0849419999999999</v>
       </c>
       <c r="H43" s="2">
-        <v>4.0849419999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>23.913043478260871</v>
+      </c>
+      <c r="M43" s="2">
+        <v>32.608695652173914</v>
+      </c>
+      <c r="N43" s="2">
+        <v>26.086956521739129</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>10.869565217391305</v>
+      </c>
+      <c r="Q43" s="2">
         <v>2.1739130434782608</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>23.913043478260871</v>
-      </c>
-      <c r="N43" s="2">
-        <v>32.608695652173914</v>
-      </c>
-      <c r="O43" s="2">
-        <v>26.086956521739129</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>10.869565217391305</v>
-      </c>
-      <c r="R43" s="2">
-        <v>2.1739130434782608</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2989,55 +2851,52 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2">
-        <v>5</v>
+        <v>1.3953971000000001</v>
       </c>
       <c r="G44" s="2">
-        <v>1.3953971000000001</v>
+        <v>3.358209</v>
       </c>
       <c r="H44" s="2">
-        <v>3.358209</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="K44" s="2">
         <v>13.333333333333334</v>
       </c>
       <c r="L44" s="2">
+        <v>20</v>
+      </c>
+      <c r="M44" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="M44" s="2">
-        <v>20</v>
-      </c>
       <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
       <c r="Q44" s="2">
-        <v>13.333333333333334</v>
-      </c>
-      <c r="R44" s="2">
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3045,22 +2904,22 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>3</v>
+        <v>0.81015020000000004</v>
       </c>
       <c r="G45" s="2">
-        <v>0.81015020000000004</v>
+        <v>2.07362</v>
       </c>
       <c r="H45" s="2">
-        <v>2.07362</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="I45" s="2">
         <v>23.076923076923077</v>
@@ -3069,31 +2928,28 @@
         <v>23.076923076923077</v>
       </c>
       <c r="K45" s="2">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>57.692307692307686</v>
       </c>
       <c r="N45" s="2">
-        <v>57.692307692307686</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>38.461538461538467</v>
       </c>
       <c r="Q45" s="2">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="R45" s="2">
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3101,55 +2957,52 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
       </c>
       <c r="F46" s="2">
-        <v>4</v>
+        <v>1.1901965999999999</v>
       </c>
       <c r="G46" s="2">
-        <v>1.1901965999999999</v>
+        <v>3.0315789999999998</v>
       </c>
       <c r="H46" s="2">
-        <v>3.0315789999999998</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I46" s="2">
         <v>8.3333333333333321</v>
       </c>
       <c r="J46" s="2">
-        <v>8.3333333333333321</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
         <v>33.333333333333329</v>
       </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
       <c r="N46" s="2">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="Q46" s="2">
-        <v>41.666666666666671</v>
-      </c>
-      <c r="R46" s="2">
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3157,55 +3010,52 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>6</v>
+        <v>1.5902696000000001</v>
       </c>
       <c r="G47" s="2">
-        <v>1.5902696000000001</v>
+        <v>4.3493979999999999</v>
       </c>
       <c r="H47" s="2">
-        <v>4.3493979999999999</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I47" s="2">
-        <v>36.84210526315789</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>10.526315789473683</v>
+      </c>
+      <c r="M47" s="2">
+        <v>31.578947368421051</v>
+      </c>
+      <c r="N47" s="2">
+        <v>26.315789473684209</v>
+      </c>
+      <c r="O47" s="2">
         <v>5.2631578947368416</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>10.526315789473683</v>
-      </c>
-      <c r="N47" s="2">
-        <v>31.578947368421051</v>
-      </c>
-      <c r="O47" s="2">
-        <v>26.315789473684209</v>
-      </c>
       <c r="P47" s="2">
+        <v>21.052631578947366</v>
+      </c>
+      <c r="Q47" s="2">
         <v>5.2631578947368416</v>
       </c>
-      <c r="Q47" s="2">
-        <v>21.052631578947366</v>
-      </c>
-      <c r="R47" s="2">
-        <v>5.2631578947368416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3213,55 +3063,52 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>6</v>
+        <v>1.4405661000000001</v>
       </c>
       <c r="G48" s="2">
-        <v>1.4405661000000001</v>
+        <v>3.3068780000000002</v>
       </c>
       <c r="H48" s="2">
-        <v>3.3068780000000002</v>
+        <v>16</v>
       </c>
       <c r="I48" s="2">
         <v>16</v>
       </c>
       <c r="J48" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M48" s="2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N48" s="2">
         <v>12</v>
       </c>
       <c r="O48" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2">
-        <v>20</v>
-      </c>
-      <c r="R48" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3269,55 +3116,52 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="2">
         <v>5</v>
       </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2">
-        <v>5</v>
+        <v>1.2048762</v>
       </c>
       <c r="G49" s="2">
-        <v>1.2048762</v>
+        <v>2.4725269999999999</v>
       </c>
       <c r="H49" s="2">
-        <v>2.4725269999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L49" s="2">
+        <v>60</v>
+      </c>
+      <c r="M49" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <v>6.666666666666667</v>
       </c>
-      <c r="M49" s="2">
-        <v>60</v>
-      </c>
-      <c r="N49" s="2">
+      <c r="Q49" s="2">
         <v>13.333333333333334</v>
       </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="R49" s="2">
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3325,55 +3169,52 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>3</v>
+        <v>0.88153230000000005</v>
       </c>
       <c r="G50" s="2">
-        <v>0.88153230000000005</v>
+        <v>2.2456140000000002</v>
       </c>
       <c r="H50" s="2">
-        <v>2.2456140000000002</v>
+        <v>25</v>
       </c>
       <c r="I50" s="2">
         <v>25</v>
       </c>
       <c r="J50" s="2">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>50</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
         <v>6.25</v>
       </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>50</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
       <c r="P50" s="2">
-        <v>6.25</v>
+        <v>43.75</v>
       </c>
       <c r="Q50" s="2">
-        <v>43.75</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3381,55 +3222,52 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>3</v>
+        <v>0.83052369999999998</v>
       </c>
       <c r="G51" s="2">
-        <v>0.83052369999999998</v>
+        <v>2.0317460000000001</v>
       </c>
       <c r="H51" s="2">
-        <v>2.0317460000000001</v>
+        <v>6.25</v>
       </c>
       <c r="I51" s="2">
+        <v>56.25</v>
+      </c>
+      <c r="J51" s="2">
         <v>6.25</v>
       </c>
-      <c r="J51" s="2">
-        <v>56.25</v>
-      </c>
       <c r="K51" s="2">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="N51" s="2">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="Q51" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -3437,31 +3275,31 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E52" s="2">
+        <v>6</v>
       </c>
       <c r="F52" s="2">
-        <v>6</v>
+        <v>1.2652669000000001</v>
       </c>
       <c r="G52" s="2">
-        <v>1.2652669000000001</v>
+        <v>2.4604650000000001</v>
       </c>
       <c r="H52" s="2">
-        <v>2.4604650000000001</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="I52" s="2">
+        <v>13.043478260869565</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
         <v>4.3478260869565215</v>
-      </c>
-      <c r="J52" s="2">
-        <v>13.043478260869565</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
       </c>
       <c r="L52" s="2">
         <v>4.3478260869565215</v>
@@ -3470,22 +3308,19 @@
         <v>4.3478260869565215</v>
       </c>
       <c r="N52" s="2">
-        <v>4.3478260869565215</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="O52" s="2">
+        <v>60.869565217391312</v>
+      </c>
+      <c r="P52" s="2">
         <v>8.695652173913043</v>
       </c>
-      <c r="P52" s="2">
-        <v>60.869565217391312</v>
-      </c>
       <c r="Q52" s="2">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="R52" s="2">
         <v>13.043478260869565</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3493,55 +3328,52 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="2">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>47</v>
-      </c>
       <c r="F53" s="2">
-        <v>4</v>
+        <v>1.3568735999999999</v>
       </c>
       <c r="G53" s="2">
-        <v>1.3568735999999999</v>
+        <v>3.7925930000000001</v>
       </c>
       <c r="H53" s="2">
-        <v>3.7925930000000001</v>
+        <v>9.375</v>
       </c>
       <c r="I53" s="2">
         <v>9.375</v>
       </c>
       <c r="J53" s="2">
-        <v>9.375</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="M53" s="2">
-        <v>31.25</v>
+        <v>15.625</v>
       </c>
       <c r="N53" s="2">
-        <v>15.625</v>
+        <v>28.125</v>
       </c>
       <c r="O53" s="2">
-        <v>28.125</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q53" s="2">
-        <v>25</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -3549,55 +3381,52 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="2">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
       <c r="F54" s="2">
-        <v>5</v>
+        <v>1.1117083999999999</v>
       </c>
       <c r="G54" s="2">
-        <v>1.1117083999999999</v>
+        <v>2.224199</v>
       </c>
       <c r="H54" s="2">
-        <v>2.224199</v>
+        <v>4</v>
       </c>
       <c r="I54" s="2">
+        <v>36</v>
+      </c>
+      <c r="J54" s="2">
+        <v>20</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>8</v>
+      </c>
+      <c r="M54" s="2">
         <v>4</v>
       </c>
-      <c r="J54" s="2">
-        <v>36</v>
-      </c>
-      <c r="K54" s="2">
-        <v>20</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>8</v>
-      </c>
       <c r="N54" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q54" s="2">
-        <v>64</v>
-      </c>
-      <c r="R54" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -3605,55 +3434,52 @@
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>4</v>
+        <v>0.98197159999999994</v>
       </c>
       <c r="G55" s="2">
-        <v>0.98197159999999994</v>
+        <v>2.2842639999999999</v>
       </c>
       <c r="H55" s="2">
-        <v>2.2842639999999999</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I55" s="2">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J55" s="2">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="Q55" s="2">
         <v>6.666666666666667</v>
       </c>
-      <c r="J55" s="2">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="K55" s="2">
-        <v>16.666666666666664</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="R55" s="2">
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3661,56 +3487,53 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
       </c>
       <c r="F56" s="2">
-        <v>3</v>
+        <v>0.85684099999999996</v>
       </c>
       <c r="G56" s="2">
-        <v>0.85684099999999996</v>
+        <v>2.0202019999999998</v>
       </c>
       <c r="H56" s="2">
-        <v>2.0202019999999998</v>
+        <v>30</v>
       </c>
       <c r="I56" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J56" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K56" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N56" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P56" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="Q56" s="2">
-        <v>65</v>
-      </c>
-      <c r="R56" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q56" xr:uid="{DBAF46EB-05E1-4E62-9230-07414926E41B}"/>
+  <autoFilter ref="A1:P56" xr:uid="{DBAF46EB-05E1-4E62-9230-07414926E41B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
